--- a/output/dmd_planning.xlsx
+++ b/output/dmd_planning.xlsx
@@ -1,313 +1,261 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LR\WLR\Documents-\WangLR\University\Y2S1\URECA\Code\testingPackage3\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74380771-7289-4DF0-95AE-19648B1C19A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MetaData" sheetId="1" r:id="rId1"/>
-    <sheet name="DoppelgangerPairs" sheetId="2" r:id="rId2"/>
-    <sheet name="ExtraPairs_Unbal-Bal" sheetId="3" r:id="rId3"/>
-    <sheet name="DoppelgangerSamplesH" sheetId="4" r:id="rId4"/>
-    <sheet name="DoppelgangerSamplesP" sheetId="5" r:id="rId5"/>
-    <sheet name="ExperimentPlan" sheetId="6" r:id="rId6"/>
+    <sheet name="MetaData" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DoppelgangerPairs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ExtraPairs_Unbal-Bal" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="DoppelgangerSamplesH" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="DoppelgangerSamplesP" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="86">
-  <si>
-    <t>Patient_ID</t>
-  </si>
-  <si>
-    <t>Batch</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>DMD_1_H</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>DMD_2_H</t>
-  </si>
-  <si>
-    <t>DMD_3_H</t>
-  </si>
-  <si>
-    <t>DMD_4_H</t>
-  </si>
-  <si>
-    <t>DMD_5_H</t>
-  </si>
-  <si>
-    <t>DMD_6_H</t>
-  </si>
-  <si>
-    <t>DMD_7_H</t>
-  </si>
-  <si>
-    <t>DMD_8_H</t>
-  </si>
-  <si>
-    <t>DMD_9_H</t>
-  </si>
-  <si>
-    <t>DMD_10_H</t>
-  </si>
-  <si>
-    <t>DMD_11_H</t>
-  </si>
-  <si>
-    <t>DMD_12_H</t>
-  </si>
-  <si>
-    <t>NOR_1_H</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>NOR_2_H</t>
-  </si>
-  <si>
-    <t>NOR_3_H</t>
-  </si>
-  <si>
-    <t>NOR_4_H</t>
-  </si>
-  <si>
-    <t>NOR_5_H</t>
-  </si>
-  <si>
-    <t>NOR_6_H</t>
-  </si>
-  <si>
-    <t>NOR_7_H</t>
-  </si>
-  <si>
-    <t>NOR_8_H</t>
-  </si>
-  <si>
-    <t>NOR_9_H</t>
-  </si>
-  <si>
-    <t>NOR_10_H</t>
-  </si>
-  <si>
-    <t>NOR_11_H</t>
-  </si>
-  <si>
-    <t>NOR_12_H</t>
-  </si>
-  <si>
-    <t>DMD_1_P</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>DMD_2_P</t>
-  </si>
-  <si>
-    <t>DMD_3_P</t>
-  </si>
-  <si>
-    <t>DMD_4_P</t>
-  </si>
-  <si>
-    <t>DMD_5_P</t>
-  </si>
-  <si>
-    <t>DMD_6_P</t>
-  </si>
-  <si>
-    <t>DMD_7_P</t>
-  </si>
-  <si>
-    <t>DMD_8_P</t>
-  </si>
-  <si>
-    <t>DMD_9_P</t>
-  </si>
-  <si>
-    <t>DMD_10_P</t>
-  </si>
-  <si>
-    <t>DMD_11_P</t>
-  </si>
-  <si>
-    <t>DMD_12_P</t>
-  </si>
-  <si>
-    <t>DMD_13_P</t>
-  </si>
-  <si>
-    <t>DMD_14_P</t>
-  </si>
-  <si>
-    <t>DMD_15_P</t>
-  </si>
-  <si>
-    <t>DMD_16_P</t>
-  </si>
-  <si>
-    <t>DMD_17_P</t>
-  </si>
-  <si>
-    <t>DMD_18_P</t>
-  </si>
-  <si>
-    <t>DMD_19_P</t>
-  </si>
-  <si>
-    <t>DMD_20_P</t>
-  </si>
-  <si>
-    <t>DMD_21_P</t>
-  </si>
-  <si>
-    <t>DMD_22_P</t>
-  </si>
-  <si>
-    <t>NOR_1_P</t>
-  </si>
-  <si>
-    <t>NOR_2_P</t>
-  </si>
-  <si>
-    <t>NOR_3_P</t>
-  </si>
-  <si>
-    <t>NOR_4_P</t>
-  </si>
-  <si>
-    <t>NOR_5_P</t>
-  </si>
-  <si>
-    <t>NOR_6_P</t>
-  </si>
-  <si>
-    <t>NOR_7_P</t>
-  </si>
-  <si>
-    <t>NOR_8_P</t>
-  </si>
-  <si>
-    <t>NOR_9_P</t>
-  </si>
-  <si>
-    <t>NOR_10_P</t>
-  </si>
-  <si>
-    <t>NOR_11_P</t>
-  </si>
-  <si>
-    <t>NOR_12_P</t>
-  </si>
-  <si>
-    <t>NOR_13_P</t>
-  </si>
-  <si>
-    <t>NOR_14_P</t>
-  </si>
-  <si>
-    <t>Sample1</t>
-  </si>
-  <si>
-    <t>Sample2</t>
-  </si>
-  <si>
-    <t>PPCC</t>
-  </si>
-  <si>
-    <t>ClassPatient</t>
-  </si>
-  <si>
-    <t>DoppelgangerLabel</t>
-  </si>
-  <si>
-    <t>Same Class
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t xml:space="preserve">Patient_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_1_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_2_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_3_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_4_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_5_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_6_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_7_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_8_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_9_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_10_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_11_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_12_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_1_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_2_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_3_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_4_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_5_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_6_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_7_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_8_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_9_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_10_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_11_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_12_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_1_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_2_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_3_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_4_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_5_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_6_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_7_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_8_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_9_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_10_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_11_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_12_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_13_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_14_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_15_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_16_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_17_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_18_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_19_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_20_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_21_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMD_22_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_1_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_2_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_3_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_4_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_5_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_6_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_7_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_8_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_9_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_10_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_11_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_12_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_13_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR_14_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClassPatient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoppelgangerLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same Class
  Different Patient</t>
   </si>
   <si>
-    <t>Doppelganger</t>
-  </si>
-  <si>
-    <t>Doppelganger Samples</t>
-  </si>
-  <si>
-    <t>Non-Doppelganger Samples</t>
-  </si>
-  <si>
-    <t>Doppel_0.train</t>
-  </si>
-  <si>
-    <t>Doppel_0.valid</t>
-  </si>
-  <si>
-    <t>Doppel_1.train</t>
-  </si>
-  <si>
-    <t>Doppel_1.valid</t>
-  </si>
-  <si>
-    <t>Doppel_2.train</t>
-  </si>
-  <si>
-    <t>Doppel_2.valid</t>
-  </si>
-  <si>
-    <t>Doppel_3.valid</t>
-  </si>
-  <si>
-    <t>Doppel_3.train</t>
-  </si>
-  <si>
-    <t>Pos_Con_3.train</t>
-  </si>
-  <si>
-    <t>Pos Con 3.valid</t>
+    <t xml:space="preserve">Doppelganger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doppelganger Samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Doppelganger Samples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -333,24 +281,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -632,14 +569,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -661,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -672,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -683,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -694,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -705,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -716,7 +653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -727,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -738,7 +675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -749,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -760,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -771,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -782,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -793,7 +730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -804,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -815,7 +752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -826,7 +763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -837,7 +774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -848,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -859,7 +796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -870,7 +807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -881,7 +818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -892,7 +829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -903,7 +840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -914,7 +851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -925,7 +862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -936,7 +873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -947,7 +884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -958,7 +895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -969,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -980,7 +917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -991,7 +928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1002,7 +939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1013,7 +950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1024,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1035,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="37">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1046,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="38">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1057,7 +994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="39">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1068,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1079,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1090,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="42">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1101,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="43">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1112,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="44">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1123,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1134,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="46">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1145,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1156,7 +1093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="48">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1167,7 +1104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="49">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1178,7 +1115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="50">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1189,7 +1126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="51">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1200,7 +1137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="52">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1211,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="53">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1222,7 +1159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="54">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1233,7 +1170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="55">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -1244,7 +1181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="56">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -1255,7 +1192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="57">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -1266,7 +1203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="58">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -1277,7 +1214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="59">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1288,7 +1225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="60">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -1299,7 +1236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="61">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1312,21 +1249,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1343,15 +1278,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2">
-        <v>0.98148758426543703</v>
+      <c r="C2" t="n">
+        <v>0.981487584265437</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -1360,15 +1295,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3">
-        <v>0.98187192540242696</v>
+      <c r="C3" t="n">
+        <v>0.981871925402427</v>
       </c>
       <c r="D3" t="s">
         <v>72</v>
@@ -1377,15 +1312,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4">
-        <v>0.98123621660833904</v>
+      <c r="C4" t="n">
+        <v>0.981236216608339</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -1394,15 +1329,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5">
-        <v>0.97912941506058304</v>
+      <c r="C5" t="n">
+        <v>0.979129415060583</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
@@ -1411,15 +1346,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6">
-        <v>0.98291449913523199</v>
+      <c r="C6" t="n">
+        <v>0.982914499135232</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
@@ -1428,15 +1363,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7">
-        <v>0.98085103655667205</v>
+      <c r="C7" t="n">
+        <v>0.980851036556672</v>
       </c>
       <c r="D7" t="s">
         <v>72</v>
@@ -1445,15 +1380,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
-        <v>0.98293230936168197</v>
+      <c r="C8" t="n">
+        <v>0.982932309361682</v>
       </c>
       <c r="D8" t="s">
         <v>72</v>
@@ -1462,15 +1397,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9">
-        <v>0.97907649694911203</v>
+      <c r="C9" t="n">
+        <v>0.979076496949112</v>
       </c>
       <c r="D9" t="s">
         <v>72</v>
@@ -1479,15 +1414,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10">
-        <v>0.97995276839882395</v>
+      <c r="C10" t="n">
+        <v>0.979952768398824</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
@@ -1496,15 +1431,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11">
-        <v>0.98302405767999601</v>
+      <c r="C11" t="n">
+        <v>0.983024057679996</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -1513,15 +1448,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12">
-        <v>0.98062389029141395</v>
+      <c r="C12" t="n">
+        <v>0.980623890291414</v>
       </c>
       <c r="D12" t="s">
         <v>72</v>
@@ -1530,15 +1465,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13">
-        <v>0.98209956982788305</v>
+      <c r="C13" t="n">
+        <v>0.982099569827883</v>
       </c>
       <c r="D13" t="s">
         <v>72</v>
@@ -1547,15 +1482,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="C14">
-        <v>0.98099126948267901</v>
+      <c r="C14" t="n">
+        <v>0.980991269482679</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
@@ -1564,15 +1499,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15">
-        <v>0.98187349159557902</v>
+      <c r="C15" t="n">
+        <v>0.981873491595579</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
@@ -1581,14 +1516,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0.980966092470131</v>
       </c>
       <c r="D16" t="s">
@@ -1598,15 +1533,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="17">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17">
-        <v>0.98180590940893497</v>
+      <c r="C17" t="n">
+        <v>0.981805909408935</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -1615,15 +1550,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18">
-        <v>0.98140494885592899</v>
+      <c r="C18" t="n">
+        <v>0.981404948855929</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
@@ -1632,15 +1567,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="19">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19">
-        <v>0.98154697882200903</v>
+      <c r="C19" t="n">
+        <v>0.981546978822009</v>
       </c>
       <c r="D19" t="s">
         <v>72</v>
@@ -1649,14 +1584,14 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="20">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0.982356905629865</v>
       </c>
       <c r="D20" t="s">
@@ -1668,19 +1603,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1697,14 +1632,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.976601116895913</v>
       </c>
       <c r="D2" t="s">
@@ -1716,21 +1651,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1738,7 +1671,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1746,840 +1679,310 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3">
+      <c r="A3"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4">
+      <c r="A4"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5">
+      <c r="A5"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6">
+      <c r="A6"/>
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7">
+      <c r="A7"/>
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8">
+      <c r="A8"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9">
+      <c r="A9"/>
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10">
+      <c r="A10"/>
       <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11">
+      <c r="A11"/>
       <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12">
+      <c r="A12"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13">
+      <c r="A13"/>
       <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14">
+      <c r="A14"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15">
+      <c r="A15"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16">
+      <c r="A16"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="17">
+      <c r="A17"/>
       <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="18">
+      <c r="A18"/>
       <c r="B18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="19">
+      <c r="A19"/>
       <c r="B19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="20">
+      <c r="A20"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="21">
+      <c r="A21"/>
       <c r="B21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="22">
+      <c r="A22"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="23">
+      <c r="A23"/>
       <c r="B23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.75">
+    <row r="24">
+      <c r="A24"/>
       <c r="B24" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="10.90625" style="2"/>
-    <col min="2" max="2" width="10.90625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" s="2" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" s="2" t="s">
+    <row r="4">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A5" s="2" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" s="2" t="s">
+    <row r="6">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A7" s="2" t="s">
+    <row r="7">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A8" s="2" t="s">
+    <row r="8">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A9" s="2" t="s">
+    <row r="9">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A10" s="2" t="s">
+    <row r="10">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A11" s="2" t="s">
+    <row r="11">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A12" s="2" t="s">
+    <row r="12">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A13" s="2" t="s">
+    <row r="13">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A14" s="2" t="s">
+    <row r="14">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A15" s="2" t="s">
+    <row r="15">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A16" s="2" t="s">
+    <row r="16">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17" s="2" t="s">
+    <row r="17">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A18" s="2" t="s">
+    <row r="18">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A19" s="2" t="s">
+    <row r="19">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A20" s="2" t="s">
+      <c r="B19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
+      <c r="B20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0759D8E-AA29-4BC6-A5D6-06F80BEE9332}">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>